--- a/data/trans_bre/P68-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P68-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.328895849077584</v>
+        <v>-3.136677429312388</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.538898685858676</v>
+        <v>-3.249551929325417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.355148580744469</v>
+        <v>-2.922008741331512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.344043643244109</v>
+        <v>-1.273055150960082</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2001409632141775</v>
+        <v>-0.1532441685685276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.135795192396749</v>
+        <v>-0.1636348255823552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.169280235911339</v>
+        <v>-0.1605921289707301</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.08150559420342629</v>
+        <v>-0.08038979629611484</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.03729760148327</v>
+        <v>10.79222763127202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.62099887260773</v>
+        <v>11.52456244943395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.19519746723707</v>
+        <v>11.66097864461719</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.467468399513889</v>
+        <v>9.739444230401528</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6972590835219735</v>
+        <v>0.6600725343252729</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7759944951547981</v>
+        <v>0.7631246818068259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8774462222482416</v>
+        <v>0.8560779757368053</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8367646918939217</v>
+        <v>0.8606134090086488</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.13789118891069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.420797970380446</v>
+        <v>0.4207979703804432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1385289015130625</v>
@@ -749,7 +749,7 @@
         <v>0.2514734616520184</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02541369366053389</v>
+        <v>0.02541369366053373</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.041339773220328</v>
+        <v>-4.512441124753527</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.569753774999803</v>
+        <v>-5.769737195944173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.844355766074072</v>
+        <v>-4.215205942914359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.56606781711125</v>
+        <v>-5.819588072723766</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2288109454337012</v>
+        <v>-0.250356697911001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3721581121662896</v>
+        <v>-0.3562848010183616</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2363395937898305</v>
+        <v>-0.2967393703014691</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2854659288259261</v>
+        <v>-0.2937121923185112</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.973749634494414</v>
+        <v>9.390907466307501</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.389193665319159</v>
+        <v>8.826763558497305</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.882170658022932</v>
+        <v>9.800056900335848</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.846808796186547</v>
+        <v>6.738004682893537</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7528126518413685</v>
+        <v>0.7459001004669835</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8147431136692372</v>
+        <v>0.7539783978294985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.000901222554165</v>
+        <v>1.036684449730165</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5059566600140007</v>
+        <v>0.5139571527952033</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-16.16467364639099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.612409178664415</v>
+        <v>2.612409178664418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09995475472103851</v>
@@ -849,7 +849,7 @@
         <v>-0.523818495477874</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1130741410869739</v>
+        <v>0.1130741410869741</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.570095656736799</v>
+        <v>-9.462036230674263</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.252407381341458</v>
+        <v>-7.393711663379468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-26.75634326666321</v>
+        <v>-25.66953885875195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.052603927022026</v>
+        <v>-6.985307830554571</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.354857115990645</v>
+        <v>-0.3388414940506135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3020858338136257</v>
+        <v>-0.2441316333458226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7754276938125781</v>
+        <v>-0.7833162182163762</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2698822701661595</v>
+        <v>-0.2710572705928712</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.63891361360497</v>
+        <v>17.36465761004125</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.9044597865445</v>
+        <v>13.55062691716062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5.683298181268507</v>
+        <v>-1.97837967402436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.33283094324414</v>
+        <v>12.83149440188408</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6693571201755725</v>
+        <v>0.6935113652781076</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4703884740569851</v>
+        <v>0.5476237338169033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1572094995050559</v>
+        <v>-0.07361620166631989</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6763800727516727</v>
+        <v>0.6633507197601481</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-5.332867975900088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.7486006651313853</v>
+        <v>-0.7486006651313798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.424449423337675</v>
@@ -949,7 +949,7 @@
         <v>-0.1875297936749868</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.03000555334241386</v>
+        <v>-0.03000555334241364</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-17.44284380678065</v>
+        <v>-17.42885847230511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.0723770439988</v>
+        <v>-12.20302993559016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.82825800433198</v>
+        <v>-11.43101452765176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.339511592438718</v>
+        <v>-5.857122594405364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5695104375741409</v>
+        <v>-0.5757089392827003</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3889350016482524</v>
+        <v>-0.389111309412606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3742624901262849</v>
+        <v>-0.3576611326846926</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2218391970041903</v>
+        <v>-0.2108413851946646</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-6.629339888162914</v>
+        <v>-6.420627566509101</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.445544760015541</v>
+        <v>1.415386630402139</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5399235175036668</v>
+        <v>0.516765571108337</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.298076104051814</v>
+        <v>4.420717640909984</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2437477861220574</v>
+        <v>-0.2400748421576561</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06127812711379984</v>
+        <v>0.05609447519167245</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02452673136571772</v>
+        <v>0.02996053556824761</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1986539503364654</v>
+        <v>0.1905502403145463</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-11.42133159260623</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11.73269096323209</v>
+        <v>11.73269096323208</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1011442611941095</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3218209165721235</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5458419410941637</v>
+        <v>0.5458419410941633</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.1181868863167</v>
+        <v>-13.61000793373733</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.02159768860611</v>
+        <v>-12.45359526179472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.54953164373845</v>
+        <v>-20.558021430053</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.741255553478603</v>
+        <v>4.426561545452282</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.346500961844136</v>
+        <v>-0.3422358011727845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3601646799604969</v>
+        <v>-0.3969029310211736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5171718426071311</v>
+        <v>-0.5133312153052609</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1750478418122554</v>
+        <v>0.1670001926742958</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.737343127988178</v>
+        <v>5.606486034757088</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.119595943495376</v>
+        <v>8.376770085710053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.238746504375398</v>
+        <v>-2.294857106143818</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.84466457368427</v>
+        <v>18.64718735177938</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2009468414011722</v>
+        <v>0.1922168499574277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4495350594191049</v>
+        <v>0.4009020830251543</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.07784048375229712</v>
+        <v>-0.06257531548319151</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.053952151881447</v>
+        <v>1.102489517918506</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.705312842190545</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.973403067552518</v>
+        <v>2.973403067552516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1354174238600759</v>
@@ -1149,7 +1149,7 @@
         <v>-0.149475366630488</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1447324438451352</v>
+        <v>0.1447324438451351</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.722506060794195</v>
+        <v>-6.51793941203984</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.138277625292681</v>
+        <v>-4.318830090820311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.957866101051844</v>
+        <v>-7.401014519356027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.2756021505693978</v>
+        <v>-0.00685615840696625</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2598605151886925</v>
+        <v>-0.2484871269672782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1655616156449638</v>
+        <v>-0.1740865282612894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2672321008446399</v>
+        <v>-0.278795165989008</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01205501603451401</v>
+        <v>-0.0001333478819099667</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.04934452855180698</v>
+        <v>-0.2298551528058083</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.000764762724868</v>
+        <v>2.66799690279897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2401890467891993</v>
+        <v>-0.1006093568195914</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.751163544671469</v>
+        <v>5.421604926432096</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.004344363939520733</v>
+        <v>-0.01049146547509346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1429342933863088</v>
+        <v>0.1207673929234309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01027769095774792</v>
+        <v>-0.00288550165299748</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3019073842971992</v>
+        <v>0.2855516622965193</v>
       </c>
     </row>
     <row r="22">
